--- a/data/trans_dic/P2A_lim_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2A_lim_R-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03684702393027332</v>
+        <v>0.03626116720947391</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.07450478593917639</v>
+        <v>0.07257848521913136</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06655055640760985</v>
+        <v>0.06567178848012251</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1128970373569968</v>
+        <v>0.1154599851198474</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03909914947613443</v>
+        <v>0.03800428096399553</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.09132609987463015</v>
+        <v>0.09175914037179328</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.07099362001041934</v>
+        <v>0.07124526637031284</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1210664676430871</v>
+        <v>0.1203625548781459</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04216631229057603</v>
+        <v>0.04253470540769668</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.08660131514819293</v>
+        <v>0.08878669926046152</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.07553322818678712</v>
+        <v>0.07300810014996473</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1239726517279939</v>
+        <v>0.1220520845021038</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07152271928696834</v>
+        <v>0.06917631386712456</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1230305652027639</v>
+        <v>0.1199735923839606</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1085324564474591</v>
+        <v>0.1086399236695105</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.163425545064413</v>
+        <v>0.1624472296497103</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.07352624115370489</v>
+        <v>0.07265469955396209</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1416413748588008</v>
+        <v>0.1418051070490975</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1197325070707448</v>
+        <v>0.1146095770339165</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1621371231746384</v>
+        <v>0.164334636509868</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06642567193565496</v>
+        <v>0.06540778746951251</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1220327754239326</v>
+        <v>0.1221287644012753</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1058033580752583</v>
+        <v>0.104372809611397</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1576539196437529</v>
+        <v>0.1543729047483823</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.08858649296334779</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.1588100338636491</v>
+        <v>0.1588100338636492</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.0738900850205252</v>
@@ -833,7 +833,7 @@
         <v>0.07805275842889284</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.1500336833591615</v>
+        <v>0.1500336833591616</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05572872491311225</v>
+        <v>0.0551885885558277</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08141730459879133</v>
+        <v>0.08045044957945706</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05176938128320385</v>
+        <v>0.0519645769550774</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1184741885794982</v>
+        <v>0.1187291100313737</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.06071165992186996</v>
+        <v>0.06035508058226647</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1009046404602045</v>
+        <v>0.09987722630913302</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07178075889730855</v>
+        <v>0.07355970107208347</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1403524532781087</v>
+        <v>0.1391290302969941</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.062236198998389</v>
+        <v>0.0617274398013963</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.09535991945517917</v>
+        <v>0.09600793521791601</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.06594119195146431</v>
+        <v>0.06632630223780044</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1367265936628933</v>
+        <v>0.1375292739734779</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08953191087733781</v>
+        <v>0.08850382225546202</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1189744790650931</v>
+        <v>0.1209977244300016</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08513848623170961</v>
+        <v>0.0849400565518804</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.165173372701991</v>
+        <v>0.1652217776079135</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09619347273853107</v>
+        <v>0.09573004224268275</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1415084014292057</v>
+        <v>0.1422777611555241</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1100288406140598</v>
+        <v>0.1099082357644217</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.177856952325783</v>
+        <v>0.1782438651222933</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08770328772211919</v>
+        <v>0.08584903156035706</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1245785399653785</v>
+        <v>0.1240267679660166</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.09154323142518199</v>
+        <v>0.09211077381334448</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1654286707495062</v>
+        <v>0.167170889376556</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05100953552674321</v>
+        <v>0.05110981049169237</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06668336640923446</v>
+        <v>0.06569983458392294</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02800475372241892</v>
+        <v>0.02830666433742412</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1263109614631999</v>
+        <v>0.1279479354133546</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06540807442128521</v>
+        <v>0.06441403397868896</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07706028153260655</v>
+        <v>0.07702440339186691</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05091295329714444</v>
+        <v>0.04951392692327111</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.139119880330853</v>
+        <v>0.1387427358426687</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.06364451708312965</v>
+        <v>0.06245392501084273</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.0784313390871729</v>
+        <v>0.07848986009151658</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04451368419852987</v>
+        <v>0.04418690182353203</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1399062923994151</v>
+        <v>0.1384679924670494</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0907686062183244</v>
+        <v>0.09306730422471964</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1104854678828237</v>
+        <v>0.1093395972863471</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05899012830473113</v>
+        <v>0.0603339320094812</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.182180416941708</v>
+        <v>0.1808669697535529</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1093960041152467</v>
+        <v>0.1078970645558176</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1256485608180972</v>
+        <v>0.1222553815132803</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.0884773420333763</v>
+        <v>0.08764527483672033</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1863010738756683</v>
+        <v>0.1859892695138444</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.09288336574492438</v>
+        <v>0.09329872799376614</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1095181334289781</v>
+        <v>0.1099678721592993</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.06762373898847199</v>
+        <v>0.06939577715825652</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1771868724574411</v>
+        <v>0.1746135925463793</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05643742484340301</v>
+        <v>0.05684670466999167</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07868950243353985</v>
+        <v>0.08132267227533557</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06882428973500168</v>
+        <v>0.06704377432735799</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.09593365467621649</v>
+        <v>0.09493348532683209</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07899178426837725</v>
+        <v>0.080427755094734</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1043454733945589</v>
+        <v>0.1025393590929197</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.07851402510472709</v>
+        <v>0.07972296716083976</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.106101151001172</v>
+        <v>0.106145652510246</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07311636945243459</v>
+        <v>0.07365205010421504</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.09669147437479279</v>
+        <v>0.09679641491653079</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07866015145309671</v>
+        <v>0.07816894603658536</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1059425524036317</v>
+        <v>0.1060763702615048</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09068724664511725</v>
+        <v>0.08799681042516598</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1195548698543541</v>
+        <v>0.1232982538012402</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1053746801290583</v>
+        <v>0.1055473375875233</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1368470279126952</v>
+        <v>0.1346917236672875</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1178387423023428</v>
+        <v>0.1196415387328131</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1459530849249536</v>
+        <v>0.144058311884677</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1183085120343627</v>
+        <v>0.118963481476453</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1400667141892014</v>
+        <v>0.141670729292888</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.09841915221778245</v>
+        <v>0.09967267027725622</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1272341964465722</v>
+        <v>0.1281366491603943</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1059927529890006</v>
+        <v>0.1054557592915042</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1328742433479187</v>
+        <v>0.1329291358707248</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05826097621438767</v>
+        <v>0.05858168807389409</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08584840693053677</v>
+        <v>0.08486196156895577</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.06133246210174855</v>
+        <v>0.06144406259799352</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1243629726215608</v>
+        <v>0.1244809848605344</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.07132937077228231</v>
+        <v>0.07196130251483422</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1045243533825034</v>
+        <v>0.1036203553886634</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.07697927246256764</v>
+        <v>0.07797836776051914</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1353870123263746</v>
+        <v>0.1357164771962186</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0669753460100523</v>
+        <v>0.06711035356701867</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.09742210928709205</v>
+        <v>0.09865785065023695</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.07287204604590748</v>
+        <v>0.07223225538348983</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1330474081047858</v>
+        <v>0.1323767836660814</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07543451453477348</v>
+        <v>0.07549964350909698</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1064018071386423</v>
+        <v>0.1061510008502603</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07893708787561635</v>
+        <v>0.07985018813113387</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1487415243536528</v>
+        <v>0.1475491876805594</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.09021640678459221</v>
+        <v>0.09128723488776636</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1264990469651132</v>
+        <v>0.1266921005266389</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.09722858783952383</v>
+        <v>0.09837571667271901</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1551417724226002</v>
+        <v>0.1549495295350229</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.08059379798453752</v>
+        <v>0.08036220624315714</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1135711967415785</v>
+        <v>0.1134357087856461</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.08619526979873124</v>
+        <v>0.08636485465795297</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1486237249953962</v>
+        <v>0.1482844585565282</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>25572</v>
+        <v>25166</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>52412</v>
+        <v>51057</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>44908</v>
+        <v>44315</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>77776</v>
+        <v>79542</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>26914</v>
+        <v>26160</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>63659</v>
+        <v>63961</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>47767</v>
+        <v>47937</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>88286</v>
+        <v>87773</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>58289</v>
+        <v>58798</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>121287</v>
+        <v>124347</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>101792</v>
+        <v>98389</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>175811</v>
+        <v>173088</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>49638</v>
+        <v>48009</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>86548</v>
+        <v>84398</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>73238</v>
+        <v>73310</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>112585</v>
+        <v>111912</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>50612</v>
+        <v>50012</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>98731</v>
+        <v>98845</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>80561</v>
+        <v>77114</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>118236</v>
+        <v>119839</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>91824</v>
+        <v>90417</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>170909</v>
+        <v>171044</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>142585</v>
+        <v>140657</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>223576</v>
+        <v>218923</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>53487</v>
+        <v>52969</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>82701</v>
+        <v>81719</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>52555</v>
+        <v>52753</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>123976</v>
+        <v>124242</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>58793</v>
+        <v>58447</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>104152</v>
+        <v>103092</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>74654</v>
+        <v>76504</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>149251</v>
+        <v>147950</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>120002</v>
+        <v>119021</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>195292</v>
+        <v>196619</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>135523</v>
+        <v>136314</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>288471</v>
+        <v>290164</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>85931</v>
+        <v>84944</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>120850</v>
+        <v>122905</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>86430</v>
+        <v>86229</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>172843</v>
+        <v>172894</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>93153</v>
+        <v>92704</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>146063</v>
+        <v>146857</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>114434</v>
+        <v>114308</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>189133</v>
+        <v>189545</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>169107</v>
+        <v>165532</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>255131</v>
+        <v>254001</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>188140</v>
+        <v>189307</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>349027</v>
+        <v>352703</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>34371</v>
+        <v>34438</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>50521</v>
+        <v>49776</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>21006</v>
+        <v>21232</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>100139</v>
+        <v>101437</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>44648</v>
+        <v>43970</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>59889</v>
+        <v>59861</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>39755</v>
+        <v>38663</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>112869</v>
+        <v>112563</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>86329</v>
+        <v>84714</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>120376</v>
+        <v>120466</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>68147</v>
+        <v>67647</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>224424</v>
+        <v>222117</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>61161</v>
+        <v>62710</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>83706</v>
+        <v>82838</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>44247</v>
+        <v>45255</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>144433</v>
+        <v>143392</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>74675</v>
+        <v>73652</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>97651</v>
+        <v>95014</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>69087</v>
+        <v>68437</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>151147</v>
+        <v>150894</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>125989</v>
+        <v>126553</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>168088</v>
+        <v>168778</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>103527</v>
+        <v>106240</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>284226</v>
+        <v>280099</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>53032</v>
+        <v>53417</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>74500</v>
+        <v>76993</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>64527</v>
+        <v>62858</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>93799</v>
+        <v>92821</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>81801</v>
+        <v>83288</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>109563</v>
+        <v>107667</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>81951</v>
+        <v>83213</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>118308</v>
+        <v>118358</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>144421</v>
+        <v>145479</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>193070</v>
+        <v>193279</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>155853</v>
+        <v>154880</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>221716</v>
+        <v>221996</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>85215</v>
+        <v>82687</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>113189</v>
+        <v>116733</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>98796</v>
+        <v>98958</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>133802</v>
+        <v>131694</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>122030</v>
+        <v>123896</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>153252</v>
+        <v>151262</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>123488</v>
+        <v>124172</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>156182</v>
+        <v>157970</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>194400</v>
+        <v>196876</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>254056</v>
+        <v>255858</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>210008</v>
+        <v>208944</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>278079</v>
+        <v>278194</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>190354</v>
+        <v>191402</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>293912</v>
+        <v>290534</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>207158</v>
+        <v>207535</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>436003</v>
+        <v>436417</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>240731</v>
+        <v>242864</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>371732</v>
+        <v>368517</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>272314</v>
+        <v>275848</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>503503</v>
+        <v>504728</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>444863</v>
+        <v>445760</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>680009</v>
+        <v>688634</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>503919</v>
+        <v>499495</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>961252</v>
+        <v>956407</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>246465</v>
+        <v>246677</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>364279</v>
+        <v>363420</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>266620</v>
+        <v>269704</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>521472</v>
+        <v>517292</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>304473</v>
+        <v>308087</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>449883</v>
+        <v>450570</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>343946</v>
+        <v>348004</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>576971</v>
+        <v>576256</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>535319</v>
+        <v>533781</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>792730</v>
+        <v>791784</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>596051</v>
+        <v>597223</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1073789</v>
+        <v>1071338</v>
       </c>
     </row>
     <row r="24">
